--- a/resources/BookList.xlsx
+++ b/resources/BookList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\IntelliJ Projects\Java Maven Practice\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\Github\Java-Maven-Practice\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAE9B17-151A-4BAF-9E8B-A3CC56C2D601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE9695-0AE8-42C1-A757-A8619B963645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="8" xr2:uid="{F0696337-5D3C-427A-BA5D-5408D2E217DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="9" xr2:uid="{F0696337-5D3C-427A-BA5D-5408D2E217DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="22-Sep-2024" sheetId="9" r:id="rId7"/>
     <sheet name="08-Oct-2024" sheetId="10" r:id="rId8"/>
     <sheet name="01-Nov-2024" sheetId="11" r:id="rId9"/>
+    <sheet name="26-May-2025" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8325" uniqueCount="2283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9954" uniqueCount="2558">
   <si>
     <t>1. Good Economics For Hard Times : Better Answers to Our Biggest Problems</t>
   </si>
@@ -6891,6 +6892,831 @@
   </si>
   <si>
     <t>Minute Difference: 35 minute(s)</t>
+  </si>
+  <si>
+    <t>GETTING THINGS DONE, (REVISED AND UPDATED) B FORMAT</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0349410151/?coliid=I1LI4LIHQEAASA&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>BAIDEHISA BILAS BY KABI SAMRAT UPENDRA BHANJA ODIA LANGUAGE EDITED BY DR. SURENDRANATH PANIGRAHI DETAILED EXPLANATIONS OF ALL CHHANDAS SATYANARAYANA BOOK STORE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0D2DHTM2Q/?coliid=I1I74KLD6Z9RF3&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Outline of The History of Kalinga</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8121238676/?coliid=ILBEYSZK03AIF&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>GAJAPATI: A KING WITHOUT A KINGDOM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8194928621/?coliid=I12W7GAXC3JLDF&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>The Saga of the Land of Jagannatha</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B07HFTS82K/?coliid=I2V2X77A1YH64D&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Discipline Equals Freedom : Field Manual Mk1-MOD1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1250280265/?coliid=I1P88TL0CE02T0&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>When Crime Pays: Money and Muscle in Indian Politics</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9353023432/?coliid=I29ESEL7310OIG&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>The Fountainhead by Ayn Rand | Timeless Classic on Individualism, Integrity &amp; Ambition | Bestselling Philosophical Novel | Must-Read Modern Literature | Fiction Bestseller</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0451191153/?coliid=I3FMH1B7XBFUTP&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Philosophy : Who Needs It?</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0451138937/?coliid=I310T77M4X2BS9&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Man's Search For Meaning: The classic tribute to hope from the Holocaust | Must read classics by Victor E. Frankl</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1846041244/?coliid=I238PVJS1H53KK&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 262</t>
+  </si>
+  <si>
+    <t>The Consolation of Philosophy (Penguin Classics) Ancius Boethius</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0140447806/?coliid=I1FSIMAEHKK36G&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Read People Like a Book: How to Analyze, Understand, and Predict People’s Emotions, Thoughts, Intentions, and Behaviors</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0C23SF7NQ/?coliid=I28SMH99SHWC5H&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Good Vibes, Good Life: How Self-Love Is the Key to Unlocking Your Greatness</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9386832836/?coliid=I1X776706HUTPR&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Missed Translations</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8194752019/?coliid=I16ISFP1FCE0XY&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>THE OBSTACLE IS THE WAY [Hardcover] Holiday, Ryan</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1781251487/?coliid=I1C1KQQAHVSSKV&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Escape from Camp 14: One Man's Remarkable Odyssey from North Korea to Freedom in the West [Paperback] Harden, Blaine</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0330519549/?coliid=I3TY0DX85KRS0N&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Influence : The Psychology of Persuasion ( New and Expanded )</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0063382881/?coliid=IMQPGH56W4F97&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 750</t>
+  </si>
+  <si>
+    <t>AS FAR AS THE SAFFRON FIELDS: The Pulwama Conspiracy</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9354895220/?coliid=I18N6DRFDO2708&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>The Color Purple [Paperback] Walker, Alice</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1780228716/?coliid=I1F6O965GUYOU7&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>GODAN (PREMCHAND)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9380134738/?coliid=I2YMPUOFQEGL08&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 238</t>
+  </si>
+  <si>
+    <t>The Naga Warriors 2: Battle of Gokul Vol 2 | From the bestselling author of Hidden Hindu Trilogy, Akshat Gupta</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0143465945/?coliid=I2UFEYU5WXKD9Z&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>The Naga Warriors 1: Battle of Gokul Vol 1 | From the bestselling author of Hidden Hindu Trilogy, Akshat Gupta [Paperback] Gupta, Akshat [Paperback] Gupta, Akshat [Paperback] Gupta, Akshat [Paperback] Gupta, Akshat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0143465937/?coliid=I2KH2GYKJ96RLF&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>History of the Russian Revolution, The</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0241301319/?coliid=I1LDRWV53NP8RJ&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 705</t>
+  </si>
+  <si>
+    <t>Ten Days That Shook the World</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0141442123/?coliid=IVKJFWHUXDZ6H&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>The Hard Thing about Hard Thing: Building a Business When There are No Easy Answers</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0DV5FHL28/?coliid=I3TIQOE3TKXGNO&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>ReWork: Change the Way You Work Forever</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0091929784/?coliid=I2LONISVC75U4K&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 489</t>
+  </si>
+  <si>
+    <t>1861: The Civil War Awakening</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1400032199/?coliid=I2244ZVEWCPTTK&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1410</t>
+  </si>
+  <si>
+    <t>The Fiery Trial</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/039334066X/?coliid=I2ZNXRDBQQ9NTP&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1423</t>
+  </si>
+  <si>
+    <t>Battle Cry of Freedom: The Civil War Era</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0140125183/?coliid=I2VCMDDC3DDYYW&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1183</t>
+  </si>
+  <si>
+    <t>A. Lincoln: A Biography</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0812975707/?coliid=I361DCN0T282P1&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1457</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/068482535X/?coliid=I1FN9KTL9JLG7T&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1755</t>
+  </si>
+  <si>
+    <t>Team of Rivals : The Political Genius of</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0141043725/?coliid=I23BFY1YHX31O8&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 859</t>
+  </si>
+  <si>
+    <t>What Got You Here Won't Get You There: How Successful People Become Even More Successful! [Paperback] Goldsmith, Marshall</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1781251568/?coliid=I2E17J1529KO7Z&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Maybe You Should Talk to Someone: the heartfelt, funny memoir by a New York Times bestselling therapist</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/191334892X/?coliid=I24EYZN1PD7WMK&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Bihar Diaries: The True Story of How Bih</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0143444352/?coliid=ILXPFXSJJQUCO&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Life in the Uniform: Adventures of an IPS Officer in Bihar</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/014345059X/?coliid=I1UVOM7SXZLX2C&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>The Day of the Triffids (Penguin Modern Classics)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0141185414/?coliid=IHSR408H3WNTV&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 624</t>
+  </si>
+  <si>
+    <t>Challenging Destiny : A Biography of Chhatrapati Shivaji [English]</t>
+  </si>
+  <si>
+    <t>₹ 594</t>
+  </si>
+  <si>
+    <t>Accelerating India's Development: A State-Led Roadmap for Effective Governance</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/067009594X/?coliid=I1IDU4JRITTHGE&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 761</t>
+  </si>
+  <si>
+    <t>₹ 660</t>
+  </si>
+  <si>
+    <t>₹ 443</t>
+  </si>
+  <si>
+    <t>₹ 1805</t>
+  </si>
+  <si>
+    <t>₹ 2556</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0D3DNFNGY/?coliid=I2Q04WYKRYHOC5&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 639</t>
+  </si>
+  <si>
+    <t>Kafka on the Shore</t>
+  </si>
+  <si>
+    <t>Norwegian Wood: Million copy bestseller by Japanese author Haruki Murakami</t>
+  </si>
+  <si>
+    <t>₹ 543</t>
+  </si>
+  <si>
+    <t>₹ 261</t>
+  </si>
+  <si>
+    <t>The Life and Death of Sambhaji | A Powerful Account of the Fearless Maratha Warrior &amp; His Battle Against Aurangzeb | Chhava’s Real Legacy</t>
+  </si>
+  <si>
+    <t>You Are The Placebo</t>
+  </si>
+  <si>
+    <t>₹ 430</t>
+  </si>
+  <si>
+    <t>₹ 875</t>
+  </si>
+  <si>
+    <t>What Do You Care What Other People Think</t>
+  </si>
+  <si>
+    <t>₹ 927</t>
+  </si>
+  <si>
+    <t>The Top Five Regrets Of The Dying A Life Transformed By The Dearly Departed</t>
+  </si>
+  <si>
+    <t>₹ 3064</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>The Adventures of the Kohinoor [Paperback] William Dalrymple; Anita Anand and Devika Cariapa</t>
+  </si>
+  <si>
+    <t>From The Holy Mountain : A Jou</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1526633353/?coliid=I2W9XYJ9W7HQE5&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>White Mughals</t>
+  </si>
+  <si>
+    <t>₹ 486</t>
+  </si>
+  <si>
+    <t>₹ 316</t>
+  </si>
+  <si>
+    <t>Early Christian Writings (Trans)</t>
+  </si>
+  <si>
+    <t>SANSKAR (PB)</t>
+  </si>
+  <si>
+    <t>₹ 1450</t>
+  </si>
+  <si>
+    <t>₹ 351</t>
+  </si>
+  <si>
+    <t>₹ 738</t>
+  </si>
+  <si>
+    <t>CONSTITUTIONAL QUESTIONS (OIP)</t>
+  </si>
+  <si>
+    <t>CHALLENGES TO CIVIL RIGHTS GURANTEES IN</t>
+  </si>
+  <si>
+    <t>₹ 718</t>
+  </si>
+  <si>
+    <t>₹ 613</t>
+  </si>
+  <si>
+    <t>₹ 601</t>
+  </si>
+  <si>
+    <t>₹ 531</t>
+  </si>
+  <si>
+    <t>On The Origin Of Species [Hardcover] Charles Darwin</t>
+  </si>
+  <si>
+    <t>Mughal and Rajput Painting</t>
+  </si>
+  <si>
+    <t>₹ 7083</t>
+  </si>
+  <si>
+    <t>₹ 1571</t>
+  </si>
+  <si>
+    <t>Aurangzeb: The Man and The Myth | National Bestseller on Mughal History | Biography of a Controversial Emperor &amp; His Legacy in India</t>
+  </si>
+  <si>
+    <t>₹ 223</t>
+  </si>
+  <si>
+    <t>White Nights – Fyodor Dostoyevsky | A Million-Copy Bestseller | A Timeless Story of Love, Longing &amp; Solitude – Penguin Classics</t>
+  </si>
+  <si>
+    <t>₹ 97</t>
+  </si>
+  <si>
+    <t>₹ 5555</t>
+  </si>
+  <si>
+    <t>Pokhran</t>
+  </si>
+  <si>
+    <t>₹ 791</t>
+  </si>
+  <si>
+    <t>Congress Radio Usha Mehta And The Underground Radio Station of 1942</t>
+  </si>
+  <si>
+    <t>Operation Blue Star the True Story (English)</t>
+  </si>
+  <si>
+    <t>₹ 312</t>
+  </si>
+  <si>
+    <t>₹ 491</t>
+  </si>
+  <si>
+    <t>Amritsar : Mrs Gandhi's Last Battle</t>
+  </si>
+  <si>
+    <t>₹ 321</t>
+  </si>
+  <si>
+    <t>Indira Gandhi, The 'emergency', And Indian Democracy</t>
+  </si>
+  <si>
+    <t>Theory and Practice of Counseling and Psychotherapy</t>
+  </si>
+  <si>
+    <t>₹ 669</t>
+  </si>
+  <si>
+    <t>₹ 1375</t>
+  </si>
+  <si>
+    <t>MIRACLE IN THE ANDES</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1474608736/?coliid=I16CT23ZSXGPO4&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Folktales from India The Penguin Premium Classic Edition</t>
+  </si>
+  <si>
+    <t>₹ 301</t>
+  </si>
+  <si>
+    <t>Red Lilies &amp; Frightened Birds</t>
+  </si>
+  <si>
+    <t>Love Stands Alone</t>
+  </si>
+  <si>
+    <t>Hundred Measures of Time, A</t>
+  </si>
+  <si>
+    <t>Around the Hearth</t>
+  </si>
+  <si>
+    <t>₹ 212</t>
+  </si>
+  <si>
+    <t>Speaking of Siva [Paperback] Ramanujan, A. [Paperback] Ramanujan, A. [Paperback] Ramanujan, A.</t>
+  </si>
+  <si>
+    <t>Constitutional Government and Democracy in India, 1e [Paperback] Abhay Prasad Singh &amp; Krishna Murari</t>
+  </si>
+  <si>
+    <t>Keeping Jewel in the Crown</t>
+  </si>
+  <si>
+    <t>₹ 187</t>
+  </si>
+  <si>
+    <t>₹ 1240</t>
+  </si>
+  <si>
+    <t>₹ 202</t>
+  </si>
+  <si>
+    <t>₹ 177</t>
+  </si>
+  <si>
+    <t>Train to Pakistan The Penguin Premium Classic Edition</t>
+  </si>
+  <si>
+    <t>Genghis Khan and the Making of the Moder</t>
+  </si>
+  <si>
+    <t>₹ 555</t>
+  </si>
+  <si>
+    <t>Last Days Of Socrates</t>
+  </si>
+  <si>
+    <t>₹ 590</t>
+  </si>
+  <si>
+    <t>₹ 1414</t>
+  </si>
+  <si>
+    <t>₹ 887</t>
+  </si>
+  <si>
+    <t>Rise of The Roman Empire</t>
+  </si>
+  <si>
+    <t>The Canterbury Tales (Penguin Classics) Geoffrey Chaucer</t>
+  </si>
+  <si>
+    <t>Crime and Punishment by Fyodor Dostoevsky: Powerful Psychological Thriller | Russian Classic on Guilt &amp; Redemption | Premium Hardbound Collector's Edition</t>
+  </si>
+  <si>
+    <t>₹ 297</t>
+  </si>
+  <si>
+    <t>₹ 266</t>
+  </si>
+  <si>
+    <t>Babur Nama</t>
+  </si>
+  <si>
+    <t>₹ 302</t>
+  </si>
+  <si>
+    <t>The Baburnama</t>
+  </si>
+  <si>
+    <t>Hanuman Drama Mishra, Damodara Mishra, Damodara Mishra, Damodara Mishra, Damodara</t>
+  </si>
+  <si>
+    <t>A Tale of Wonder: Kathakautukam</t>
+  </si>
+  <si>
+    <t>₹ 213</t>
+  </si>
+  <si>
+    <t>The Ramcharitmanas | Vol.1</t>
+  </si>
+  <si>
+    <t>Ramcharitmanas The Vol. 2</t>
+  </si>
+  <si>
+    <t>₹ 420</t>
+  </si>
+  <si>
+    <t>Ramcharitmanas The Vol.3</t>
+  </si>
+  <si>
+    <t>₹ 736</t>
+  </si>
+  <si>
+    <t>₹ 990</t>
+  </si>
+  <si>
+    <t>₹ 1120</t>
+  </si>
+  <si>
+    <t>₹ 1068</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9385288008/?coliid=I1F16PYIPA49HK&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>chrome://newtab/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9353576628/?coliid=I2X7QRT5JK3L1F&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>https://www.google.com/sorry/index?continue=https://www.google.com/search%3Fq%3Dy%26oq%3Dy%26gs_lcrp%3DEgZjaHJvbWUyBggAEEUYOTIGCAEQRRg9MgYIAhBFGD0yBggDEEUYPNIBBzI5NGowajGoAgCwAgA%26sourceid%3Dchrome%26ie%3DUTF-8%26sei%3DAq80aNPeOfaXwcsP1q3F8As&amp;q=EhAkBnQAAGNoWSUsG1iJ76MwGIPe0sEGIjCh8wmulYFPMWugfLj5_EkvAMbYgCV865RdXAkZ0SAz4X5UdDBXgzRa3ehlYn0e4F0yAVJaAUM</t>
+  </si>
+  <si>
+    <t>₹ 501</t>
+  </si>
+  <si>
+    <t>Kitne Ghazi Aye Kitne Ghazi Gaye My Life Story</t>
+  </si>
+  <si>
+    <t>Bipin</t>
+  </si>
+  <si>
+    <t>₹ 565</t>
+  </si>
+  <si>
+    <t>Who Moved My Interest Rate</t>
+  </si>
+  <si>
+    <t>₹ 534</t>
+  </si>
+  <si>
+    <t>Winning in the Digital</t>
+  </si>
+  <si>
+    <t>₹ 620</t>
+  </si>
+  <si>
+    <t>₹ 2849</t>
+  </si>
+  <si>
+    <t>₹ 1115</t>
+  </si>
+  <si>
+    <t>₹ 131</t>
+  </si>
+  <si>
+    <t>Encounters with Politicians – Insightful Narratives and Personal Experiences with Influential Leaders</t>
+  </si>
+  <si>
+    <t>₹ 2654</t>
+  </si>
+  <si>
+    <t>₹ 8701</t>
+  </si>
+  <si>
+    <t>₹ 432</t>
+  </si>
+  <si>
+    <t>Fooled by Randomness : The Hidden Role</t>
+  </si>
+  <si>
+    <t>The Republic | Plato | Hardcover | International Bestseller Book [Hardcover]</t>
+  </si>
+  <si>
+    <t>₹ 1216</t>
+  </si>
+  <si>
+    <t>₹ 644</t>
+  </si>
+  <si>
+    <t>₹ 1290</t>
+  </si>
+  <si>
+    <t>₹ 2226</t>
+  </si>
+  <si>
+    <t>Laws Of Manu (Black Classics)</t>
+  </si>
+  <si>
+    <t>₹ 365</t>
+  </si>
+  <si>
+    <t>Upanisads, The (Penguin Classics)</t>
+  </si>
+  <si>
+    <t>₹ 762</t>
+  </si>
+  <si>
+    <t>₹ 701</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9390064783/?coliid=I11MXR1YHV638D&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1418</t>
+  </si>
+  <si>
+    <t>₹ 963</t>
+  </si>
+  <si>
+    <t>Ambedkar's India</t>
+  </si>
+  <si>
+    <t>₹ 144</t>
+  </si>
+  <si>
+    <t>Relativity: The Special And The General Theory</t>
+  </si>
+  <si>
+    <t>₹ 938</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0BMGHTFFH/?coliid=I1CBTO5QNS8JEZ&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>Psychology | Fifth Edition | By Pearson</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>₹ 571</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>₹ 1598</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>₹ 1325</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>₹ 2246</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>₹ 317</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>₹ 263</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>₹ 243</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>₹ 7436</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>₹ 1376</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>₹ 788</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>Good To Great</t>
+  </si>
+  <si>
+    <t>₹ 813</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>Total Price: ₹219551</t>
+  </si>
+  <si>
+    <t>Minute Difference: 32 minute(s)</t>
   </si>
 </sst>
 </file>
@@ -7255,7 +8081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA42A9B7-E7D7-4494-8DC2-2E1560CE410A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1D776B-2109-4198-932B-38FBA2B6BBAD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -7268,8 +8094,5734 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2346BB96-02BF-4ACD-A0F8-51D7D3153364}">
+  <dimension ref="A1:D412"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="B412" sqref="B412"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="99.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" t="s">
+        <v>742</v>
+      </c>
+      <c r="C12" t="s">
+        <v>743</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>381</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B27" t="s">
+        <v>829</v>
+      </c>
+      <c r="C27" t="s">
+        <v>830</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>402</v>
+      </c>
+      <c r="B29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>405</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>420</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>423</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>426</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>432</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>435</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>521</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>438</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>441</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>444</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>447</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>450</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>456</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>459</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>462</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>465</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>468</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>471</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>474</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>477</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>483</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>486</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>489</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>492</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>495</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>498</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>501</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>504</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>507</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>510</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>513</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>516</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>522</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>525</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>528</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>531</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>534</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>537</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>540</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>543</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>546</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>549</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>552</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>555</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>558</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>561</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>564</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>567</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>570</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>573</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>576</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>579</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>582</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>585</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>588</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>591</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>594</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>597</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>600</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>603</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>606</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>609</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>612</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>615</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>618</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>621</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>624</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>627</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>630</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>633</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C106" t="s">
+        <v>895</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>636</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>639</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>642</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>645</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>648</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>651</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>654</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>657</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>660</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>663</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>666</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>669</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>672</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>675</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>678</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>681</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>684</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>687</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>690</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>693</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>696</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>699</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>702</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>705</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>708</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>711</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>714</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>717</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>720</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>723</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>726</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>729</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>732</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>735</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>738</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>741</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>744</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>747</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>750</v>
+      </c>
+      <c r="B145" t="s">
+        <v>757</v>
+      </c>
+      <c r="C145" t="s">
+        <v>758</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>753</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>756</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>759</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>762</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>765</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>768</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>771</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>774</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>777</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>780</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>783</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>786</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>789</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>792</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>795</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>798</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>801</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>804</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>807</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>810</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>813</v>
+      </c>
+      <c r="B166" t="s">
+        <v>952</v>
+      </c>
+      <c r="C166" t="s">
+        <v>953</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>816</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>819</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>822</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>825</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>828</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>831</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>834</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>837</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>840</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>843</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>846</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>849</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>852</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>855</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>858</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>861</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>864</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>867</v>
+      </c>
+      <c r="B184" t="s">
+        <v>334</v>
+      </c>
+      <c r="C184" t="s">
+        <v>335</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>870</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>873</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>876</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>879</v>
+      </c>
+      <c r="B188" t="s">
+        <v>886</v>
+      </c>
+      <c r="C188" t="s">
+        <v>887</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>882</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B191" t="s">
+        <v>346</v>
+      </c>
+      <c r="C191" t="s">
+        <v>347</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B194" t="s">
+        <v>950</v>
+      </c>
+      <c r="C194" t="s">
+        <v>951</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B196" t="s">
+        <v>367</v>
+      </c>
+      <c r="C196" t="s">
+        <v>368</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C204" t="s">
+        <v>891</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B205" t="s">
+        <v>892</v>
+      </c>
+      <c r="C205" t="s">
+        <v>893</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B206" t="s">
+        <v>896</v>
+      </c>
+      <c r="C206" t="s">
+        <v>897</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C207" t="s">
+        <v>899</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B208" t="s">
+        <v>900</v>
+      </c>
+      <c r="C208" t="s">
+        <v>901</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C209" t="s">
+        <v>903</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B210" t="s">
+        <v>904</v>
+      </c>
+      <c r="C210" t="s">
+        <v>905</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B211" t="s">
+        <v>906</v>
+      </c>
+      <c r="C211" t="s">
+        <v>907</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C212" t="s">
+        <v>909</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B213" t="s">
+        <v>910</v>
+      </c>
+      <c r="C213" t="s">
+        <v>911</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B214" t="s">
+        <v>912</v>
+      </c>
+      <c r="C214" t="s">
+        <v>913</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B215" t="s">
+        <v>914</v>
+      </c>
+      <c r="C215" t="s">
+        <v>915</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B216" t="s">
+        <v>916</v>
+      </c>
+      <c r="C216" t="s">
+        <v>917</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B217" t="s">
+        <v>918</v>
+      </c>
+      <c r="C217" t="s">
+        <v>919</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B218" t="s">
+        <v>920</v>
+      </c>
+      <c r="C218" t="s">
+        <v>921</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C219" t="s">
+        <v>923</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B220" t="s">
+        <v>924</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C221" t="s">
+        <v>927</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B222" t="s">
+        <v>928</v>
+      </c>
+      <c r="C222" t="s">
+        <v>929</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B223" t="s">
+        <v>930</v>
+      </c>
+      <c r="C223" t="s">
+        <v>931</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C224" t="s">
+        <v>933</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B225" t="s">
+        <v>934</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B226" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C226" t="s">
+        <v>937</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B227" t="s">
+        <v>938</v>
+      </c>
+      <c r="C227" t="s">
+        <v>939</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B228" t="s">
+        <v>940</v>
+      </c>
+      <c r="C228" t="s">
+        <v>941</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B229" t="s">
+        <v>942</v>
+      </c>
+      <c r="C229" t="s">
+        <v>943</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B230" t="s">
+        <v>944</v>
+      </c>
+      <c r="C230" t="s">
+        <v>945</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B231" t="s">
+        <v>946</v>
+      </c>
+      <c r="C231" t="s">
+        <v>947</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B232" t="s">
+        <v>948</v>
+      </c>
+      <c r="C232" t="s">
+        <v>949</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B233" t="s">
+        <v>445</v>
+      </c>
+      <c r="C233" t="s">
+        <v>446</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B234" t="s">
+        <v>955</v>
+      </c>
+      <c r="C234" t="s">
+        <v>956</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B235" t="s">
+        <v>957</v>
+      </c>
+      <c r="C235" t="s">
+        <v>958</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B236" t="s">
+        <v>959</v>
+      </c>
+      <c r="C236" t="s">
+        <v>960</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B237" t="s">
+        <v>961</v>
+      </c>
+      <c r="C237" t="s">
+        <v>962</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C238" t="s">
+        <v>320</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C239" t="s">
+        <v>323</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B240" t="s">
+        <v>325</v>
+      </c>
+      <c r="C240" t="s">
+        <v>326</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B241" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C241" t="s">
+        <v>329</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B242" t="s">
+        <v>331</v>
+      </c>
+      <c r="C242" t="s">
+        <v>332</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C243" t="s">
+        <v>338</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B244" t="s">
+        <v>340</v>
+      </c>
+      <c r="C244" t="s">
+        <v>341</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B245" t="s">
+        <v>343</v>
+      </c>
+      <c r="C245" t="s">
+        <v>344</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B246" t="s">
+        <v>349</v>
+      </c>
+      <c r="C246" t="s">
+        <v>350</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B247" t="s">
+        <v>352</v>
+      </c>
+      <c r="C247" t="s">
+        <v>353</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B248" t="s">
+        <v>355</v>
+      </c>
+      <c r="C248" t="s">
+        <v>356</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C249" t="s">
+        <v>359</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C250" t="s">
+        <v>362</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C251" t="s">
+        <v>365</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B252" t="s">
+        <v>376</v>
+      </c>
+      <c r="C252" t="s">
+        <v>377</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B253" t="s">
+        <v>379</v>
+      </c>
+      <c r="C253" t="s">
+        <v>380</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C254" t="s">
+        <v>386</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B255" t="s">
+        <v>388</v>
+      </c>
+      <c r="C255" t="s">
+        <v>389</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B256" t="s">
+        <v>391</v>
+      </c>
+      <c r="C256" t="s">
+        <v>392</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B257" t="s">
+        <v>394</v>
+      </c>
+      <c r="C257" t="s">
+        <v>395</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B258" t="s">
+        <v>397</v>
+      </c>
+      <c r="C258" t="s">
+        <v>398</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B259" t="s">
+        <v>400</v>
+      </c>
+      <c r="C259" t="s">
+        <v>401</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B260" t="s">
+        <v>403</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B261" t="s">
+        <v>406</v>
+      </c>
+      <c r="C261" t="s">
+        <v>407</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B262" t="s">
+        <v>409</v>
+      </c>
+      <c r="C262" t="s">
+        <v>410</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B263" t="s">
+        <v>412</v>
+      </c>
+      <c r="C263" t="s">
+        <v>413</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B264" t="s">
+        <v>415</v>
+      </c>
+      <c r="C264" t="s">
+        <v>416</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B265" t="s">
+        <v>418</v>
+      </c>
+      <c r="C265" t="s">
+        <v>419</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B266" t="s">
+        <v>421</v>
+      </c>
+      <c r="C266" t="s">
+        <v>422</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B267" t="s">
+        <v>424</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B268" t="s">
+        <v>427</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B269" t="s">
+        <v>430</v>
+      </c>
+      <c r="C269" t="s">
+        <v>428</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B270" t="s">
+        <v>433</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B271" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C271" t="s">
+        <v>431</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C272" t="s">
+        <v>434</v>
+      </c>
+      <c r="D272" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B273" t="s">
+        <v>442</v>
+      </c>
+      <c r="C273" t="s">
+        <v>437</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B274" t="s">
+        <v>448</v>
+      </c>
+      <c r="C274" t="s">
+        <v>440</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B275" t="s">
+        <v>451</v>
+      </c>
+      <c r="C275" t="s">
+        <v>443</v>
+      </c>
+      <c r="D275" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B276" t="s">
+        <v>454</v>
+      </c>
+      <c r="C276" t="s">
+        <v>449</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C277" t="s">
+        <v>452</v>
+      </c>
+      <c r="D277" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B278" t="s">
+        <v>460</v>
+      </c>
+      <c r="C278" t="s">
+        <v>455</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B279" t="s">
+        <v>463</v>
+      </c>
+      <c r="C279" t="s">
+        <v>458</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B280" t="s">
+        <v>466</v>
+      </c>
+      <c r="C280" t="s">
+        <v>461</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B281" t="s">
+        <v>469</v>
+      </c>
+      <c r="C281" t="s">
+        <v>464</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B282" t="s">
+        <v>472</v>
+      </c>
+      <c r="C282" t="s">
+        <v>467</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B283" t="s">
+        <v>475</v>
+      </c>
+      <c r="C283" t="s">
+        <v>470</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B284" t="s">
+        <v>478</v>
+      </c>
+      <c r="C284" t="s">
+        <v>473</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B285" t="s">
+        <v>481</v>
+      </c>
+      <c r="C285" t="s">
+        <v>476</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C286" t="s">
+        <v>479</v>
+      </c>
+      <c r="D286" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B287" t="s">
+        <v>970</v>
+      </c>
+      <c r="C287" t="s">
+        <v>482</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B288" t="s">
+        <v>490</v>
+      </c>
+      <c r="C288" t="s">
+        <v>485</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B289" t="s">
+        <v>493</v>
+      </c>
+      <c r="C289" t="s">
+        <v>488</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B290" t="s">
+        <v>496</v>
+      </c>
+      <c r="C290" t="s">
+        <v>491</v>
+      </c>
+      <c r="D290" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B291" t="s">
+        <v>499</v>
+      </c>
+      <c r="C291" t="s">
+        <v>972</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B292" t="s">
+        <v>502</v>
+      </c>
+      <c r="C292" t="s">
+        <v>497</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B293" t="s">
+        <v>505</v>
+      </c>
+      <c r="C293" t="s">
+        <v>973</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B294" t="s">
+        <v>508</v>
+      </c>
+      <c r="C294" t="s">
+        <v>503</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B295" t="s">
+        <v>511</v>
+      </c>
+      <c r="C295" t="s">
+        <v>506</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B296" t="s">
+        <v>514</v>
+      </c>
+      <c r="C296" t="s">
+        <v>509</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B297" t="s">
+        <v>517</v>
+      </c>
+      <c r="C297" t="s">
+        <v>512</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B298" t="s">
+        <v>523</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D298" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B299" t="s">
+        <v>526</v>
+      </c>
+      <c r="C299" t="s">
+        <v>518</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B300" t="s">
+        <v>529</v>
+      </c>
+      <c r="C300" t="s">
+        <v>524</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B301" t="s">
+        <v>532</v>
+      </c>
+      <c r="C301" t="s">
+        <v>527</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B302" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C302" t="s">
+        <v>530</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B303" t="s">
+        <v>547</v>
+      </c>
+      <c r="C303" t="s">
+        <v>533</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B304" t="s">
+        <v>553</v>
+      </c>
+      <c r="C304" t="s">
+        <v>539</v>
+      </c>
+      <c r="D304" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B305" t="s">
+        <v>556</v>
+      </c>
+      <c r="C305" t="s">
+        <v>548</v>
+      </c>
+      <c r="D305" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B306" t="s">
+        <v>559</v>
+      </c>
+      <c r="C306" t="s">
+        <v>554</v>
+      </c>
+      <c r="D306" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B307" t="s">
+        <v>562</v>
+      </c>
+      <c r="C307" t="s">
+        <v>557</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B308" t="s">
+        <v>565</v>
+      </c>
+      <c r="C308" t="s">
+        <v>560</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C309" t="s">
+        <v>563</v>
+      </c>
+      <c r="D309" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C310" t="s">
+        <v>566</v>
+      </c>
+      <c r="D310" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B311" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C311" t="s">
+        <v>569</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B312" t="s">
+        <v>577</v>
+      </c>
+      <c r="C312" t="s">
+        <v>572</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B313" t="s">
+        <v>580</v>
+      </c>
+      <c r="C313" t="s">
+        <v>575</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B314" t="s">
+        <v>583</v>
+      </c>
+      <c r="C314" t="s">
+        <v>578</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B315" t="s">
+        <v>586</v>
+      </c>
+      <c r="C315" t="s">
+        <v>581</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B316" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C316" t="s">
+        <v>584</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B317" t="s">
+        <v>592</v>
+      </c>
+      <c r="C317" t="s">
+        <v>587</v>
+      </c>
+      <c r="D317" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B318" t="s">
+        <v>595</v>
+      </c>
+      <c r="C318" t="s">
+        <v>590</v>
+      </c>
+      <c r="D318" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B319" t="s">
+        <v>598</v>
+      </c>
+      <c r="C319" t="s">
+        <v>593</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C320" t="s">
+        <v>596</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B321" t="s">
+        <v>604</v>
+      </c>
+      <c r="C321" t="s">
+        <v>599</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B322" t="s">
+        <v>607</v>
+      </c>
+      <c r="C322" t="s">
+        <v>602</v>
+      </c>
+      <c r="D322" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B323" t="s">
+        <v>610</v>
+      </c>
+      <c r="C323" t="s">
+        <v>605</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B324" t="s">
+        <v>613</v>
+      </c>
+      <c r="C324" t="s">
+        <v>608</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B325" t="s">
+        <v>619</v>
+      </c>
+      <c r="C325" t="s">
+        <v>611</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B326" t="s">
+        <v>622</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D326" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B327" t="s">
+        <v>625</v>
+      </c>
+      <c r="C327" t="s">
+        <v>620</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B328" t="s">
+        <v>628</v>
+      </c>
+      <c r="C328" t="s">
+        <v>623</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B329" t="s">
+        <v>631</v>
+      </c>
+      <c r="C329" t="s">
+        <v>626</v>
+      </c>
+      <c r="D329" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B330" t="s">
+        <v>634</v>
+      </c>
+      <c r="C330" t="s">
+        <v>629</v>
+      </c>
+      <c r="D330" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B331" t="s">
+        <v>637</v>
+      </c>
+      <c r="C331" t="s">
+        <v>632</v>
+      </c>
+      <c r="D331" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B332" t="s">
+        <v>640</v>
+      </c>
+      <c r="C332" t="s">
+        <v>635</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B333" t="s">
+        <v>643</v>
+      </c>
+      <c r="C333" t="s">
+        <v>638</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B334" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C334" t="s">
+        <v>641</v>
+      </c>
+      <c r="D334" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B335" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C335" t="s">
+        <v>644</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B336" t="s">
+        <v>652</v>
+      </c>
+      <c r="C336" t="s">
+        <v>647</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B337" t="s">
+        <v>655</v>
+      </c>
+      <c r="C337" t="s">
+        <v>650</v>
+      </c>
+      <c r="D337" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B338" t="s">
+        <v>664</v>
+      </c>
+      <c r="C338" t="s">
+        <v>653</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B339" t="s">
+        <v>667</v>
+      </c>
+      <c r="C339" t="s">
+        <v>656</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B340" t="s">
+        <v>670</v>
+      </c>
+      <c r="C340" t="s">
+        <v>665</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B341" t="s">
+        <v>673</v>
+      </c>
+      <c r="C341" t="s">
+        <v>668</v>
+      </c>
+      <c r="D341" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C342" t="s">
+        <v>671</v>
+      </c>
+      <c r="D342" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B343" t="s">
+        <v>679</v>
+      </c>
+      <c r="C343" t="s">
+        <v>674</v>
+      </c>
+      <c r="D343" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B344" t="s">
+        <v>682</v>
+      </c>
+      <c r="C344" t="s">
+        <v>677</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B345" t="s">
+        <v>685</v>
+      </c>
+      <c r="C345" t="s">
+        <v>680</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B346" t="s">
+        <v>688</v>
+      </c>
+      <c r="C346" t="s">
+        <v>683</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B347" t="s">
+        <v>691</v>
+      </c>
+      <c r="C347" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B348" t="s">
+        <v>694</v>
+      </c>
+      <c r="C348" t="s">
+        <v>689</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B349" t="s">
+        <v>697</v>
+      </c>
+      <c r="C349" t="s">
+        <v>692</v>
+      </c>
+      <c r="D349" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B350" t="s">
+        <v>700</v>
+      </c>
+      <c r="C350" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B351" t="s">
+        <v>703</v>
+      </c>
+      <c r="C351" t="s">
+        <v>698</v>
+      </c>
+      <c r="D351" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B352" t="s">
+        <v>706</v>
+      </c>
+      <c r="C352" t="s">
+        <v>701</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B353" t="s">
+        <v>709</v>
+      </c>
+      <c r="C353" t="s">
+        <v>704</v>
+      </c>
+      <c r="D353" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B354" t="s">
+        <v>712</v>
+      </c>
+      <c r="C354" t="s">
+        <v>707</v>
+      </c>
+      <c r="D354" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B355" t="s">
+        <v>715</v>
+      </c>
+      <c r="C355" t="s">
+        <v>710</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B356" t="s">
+        <v>718</v>
+      </c>
+      <c r="C356" t="s">
+        <v>713</v>
+      </c>
+      <c r="D356" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C357" t="s">
+        <v>716</v>
+      </c>
+      <c r="D357" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B358" t="s">
+        <v>724</v>
+      </c>
+      <c r="C358" t="s">
+        <v>719</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B359" t="s">
+        <v>727</v>
+      </c>
+      <c r="C359" t="s">
+        <v>722</v>
+      </c>
+      <c r="D359" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B360" t="s">
+        <v>733</v>
+      </c>
+      <c r="C360" t="s">
+        <v>725</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B361" t="s">
+        <v>736</v>
+      </c>
+      <c r="C361" t="s">
+        <v>728</v>
+      </c>
+      <c r="D361" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B362" t="s">
+        <v>739</v>
+      </c>
+      <c r="C362" t="s">
+        <v>734</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B363" t="s">
+        <v>745</v>
+      </c>
+      <c r="C363" t="s">
+        <v>737</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B364" t="s">
+        <v>748</v>
+      </c>
+      <c r="C364" t="s">
+        <v>740</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B365" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C365" t="s">
+        <v>746</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B366" t="s">
+        <v>754</v>
+      </c>
+      <c r="C366" t="s">
+        <v>749</v>
+      </c>
+      <c r="D366" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B367" t="s">
+        <v>760</v>
+      </c>
+      <c r="C367" t="s">
+        <v>752</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B368" t="s">
+        <v>763</v>
+      </c>
+      <c r="C368" t="s">
+        <v>755</v>
+      </c>
+      <c r="D368" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B369" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C369" t="s">
+        <v>761</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B370" t="s">
+        <v>769</v>
+      </c>
+      <c r="C370" t="s">
+        <v>764</v>
+      </c>
+      <c r="D370" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B371" t="s">
+        <v>772</v>
+      </c>
+      <c r="C371" t="s">
+        <v>767</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B372" t="s">
+        <v>775</v>
+      </c>
+      <c r="C372" t="s">
+        <v>770</v>
+      </c>
+      <c r="D372" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B373" t="s">
+        <v>778</v>
+      </c>
+      <c r="C373" t="s">
+        <v>773</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B374" t="s">
+        <v>781</v>
+      </c>
+      <c r="C374" t="s">
+        <v>776</v>
+      </c>
+      <c r="D374" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B375" t="s">
+        <v>784</v>
+      </c>
+      <c r="C375" t="s">
+        <v>779</v>
+      </c>
+      <c r="D375" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C376" t="s">
+        <v>782</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B377" t="s">
+        <v>790</v>
+      </c>
+      <c r="C377" t="s">
+        <v>785</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B378" t="s">
+        <v>793</v>
+      </c>
+      <c r="C378" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C379" t="s">
+        <v>791</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B380" t="s">
+        <v>799</v>
+      </c>
+      <c r="C380" t="s">
+        <v>794</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B381" t="s">
+        <v>802</v>
+      </c>
+      <c r="C381" t="s">
+        <v>797</v>
+      </c>
+      <c r="D381" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B382" t="s">
+        <v>805</v>
+      </c>
+      <c r="C382" t="s">
+        <v>800</v>
+      </c>
+      <c r="D382" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B383" t="s">
+        <v>808</v>
+      </c>
+      <c r="C383" t="s">
+        <v>803</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B384" t="s">
+        <v>811</v>
+      </c>
+      <c r="C384" t="s">
+        <v>806</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B385" t="s">
+        <v>814</v>
+      </c>
+      <c r="C385" t="s">
+        <v>809</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B386" t="s">
+        <v>817</v>
+      </c>
+      <c r="C386" t="s">
+        <v>812</v>
+      </c>
+      <c r="D386" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B387" t="s">
+        <v>481</v>
+      </c>
+      <c r="C387" t="s">
+        <v>815</v>
+      </c>
+      <c r="D387" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B388" t="s">
+        <v>823</v>
+      </c>
+      <c r="C388" t="s">
+        <v>818</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B389" t="s">
+        <v>826</v>
+      </c>
+      <c r="C389" t="s">
+        <v>821</v>
+      </c>
+      <c r="D389" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B390" t="s">
+        <v>832</v>
+      </c>
+      <c r="C390" t="s">
+        <v>824</v>
+      </c>
+      <c r="D390" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B391" t="s">
+        <v>835</v>
+      </c>
+      <c r="C391" t="s">
+        <v>827</v>
+      </c>
+      <c r="D391" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B392" t="s">
+        <v>838</v>
+      </c>
+      <c r="C392" t="s">
+        <v>833</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B393" t="s">
+        <v>841</v>
+      </c>
+      <c r="C393" t="s">
+        <v>836</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B394" t="s">
+        <v>844</v>
+      </c>
+      <c r="C394" t="s">
+        <v>839</v>
+      </c>
+      <c r="D394" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B395" t="s">
+        <v>847</v>
+      </c>
+      <c r="C395" t="s">
+        <v>842</v>
+      </c>
+      <c r="D395" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B396" t="s">
+        <v>850</v>
+      </c>
+      <c r="C396" t="s">
+        <v>845</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B397" t="s">
+        <v>853</v>
+      </c>
+      <c r="C397" t="s">
+        <v>848</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B398" t="s">
+        <v>856</v>
+      </c>
+      <c r="C398" t="s">
+        <v>851</v>
+      </c>
+      <c r="D398" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B399" t="s">
+        <v>859</v>
+      </c>
+      <c r="C399" t="s">
+        <v>854</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B400" t="s">
+        <v>862</v>
+      </c>
+      <c r="C400" t="s">
+        <v>857</v>
+      </c>
+      <c r="D400" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B401" t="s">
+        <v>865</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B402" t="s">
+        <v>868</v>
+      </c>
+      <c r="C402" t="s">
+        <v>863</v>
+      </c>
+      <c r="D402" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C403" t="s">
+        <v>866</v>
+      </c>
+      <c r="D403" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B404" t="s">
+        <v>874</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D404" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C405" t="s">
+        <v>872</v>
+      </c>
+      <c r="D405" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C406" t="s">
+        <v>875</v>
+      </c>
+      <c r="D406" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B407" t="s">
+        <v>883</v>
+      </c>
+      <c r="C407" t="s">
+        <v>878</v>
+      </c>
+      <c r="D407" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B411" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2E64B3-20ED-4889-A076-BCEA128563D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4635383-3379-4C31-B105-12ED30D5AA5E}">
   <dimension ref="A1:A318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8877,7 +15429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCE481E-53BD-4EE3-907E-140733F7763E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBD8462-EBA6-49EF-9003-85DF937F4898}">
   <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
@@ -11549,7 +18101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FB3648-D37A-4C4F-A1FB-B32AA665A37E}">
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView topLeftCell="A217" workbookViewId="0">
@@ -14751,7 +21303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE1FEA5-68A1-498B-A1FE-5A16E337716E}">
   <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView topLeftCell="A259" workbookViewId="0">
@@ -18554,7 +25106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84F285F-9E88-4B3A-BF03-F7A531A17812}">
   <dimension ref="A1:D339"/>
   <sheetViews>
     <sheetView topLeftCell="A325" workbookViewId="0">
@@ -23306,7 +29858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D366D4A4-DE01-47FE-9948-3F8BDE4AB622}">
   <dimension ref="A1:D350"/>
   <sheetViews>
     <sheetView topLeftCell="A331" workbookViewId="0">
@@ -28192,7 +34744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DAFC7F-0421-4154-AB89-4CB5A2268706}">
   <dimension ref="A1:D361"/>
   <sheetViews>
     <sheetView topLeftCell="A334" workbookViewId="0">
@@ -33232,11 +39784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B36AEB-DB58-4230-8919-4D4DCC9D310E}">
   <dimension ref="A1:D378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="B378" sqref="B378"/>
+    <sheetView topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/resources/BookList.xlsx
+++ b/resources/BookList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\Github\Java-Maven-Practice\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972A112-8ADC-4963-B216-4669374294AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8534BA2-920F-4177-A2F0-D3BAB10CBA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="10" xr2:uid="{F0696337-5D3C-427A-BA5D-5408D2E217DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="7" activeTab="11" xr2:uid="{F0696337-5D3C-427A-BA5D-5408D2E217DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="01-Nov-2024" sheetId="11" r:id="rId9"/>
     <sheet name="26-May-2025" sheetId="12" r:id="rId10"/>
     <sheet name="06-Jun-2025" sheetId="13" r:id="rId11"/>
+    <sheet name="30-Jun-2025" sheetId="15" r:id="rId12"/>
+    <sheet name="Books to buy" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11588" uniqueCount="2611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13024" uniqueCount="2810">
   <si>
     <t>1. Good Economics For Hard Times : Better Answers to Our Biggest Problems</t>
   </si>
@@ -7877,6 +7879,603 @@
   </si>
   <si>
     <t>Minute Difference: 41 minute(s)</t>
+  </si>
+  <si>
+    <t>#Tatastories: 40 Timeless Tales to Inspire You</t>
+  </si>
+  <si>
+    <t>12 Rules for Life: An Antidote to Chaos</t>
+  </si>
+  <si>
+    <t>A man called Ove</t>
+  </si>
+  <si>
+    <t>Accelerating India's Development</t>
+  </si>
+  <si>
+    <t>Against the Gods</t>
+  </si>
+  <si>
+    <t>American Kingpin</t>
+  </si>
+  <si>
+    <t>Anger Management</t>
+  </si>
+  <si>
+    <t>Atmamun: The Path to Achieving the Bliss of the Himalayan Swamis. and the Freedom of a Living God.</t>
+  </si>
+  <si>
+    <t>Atomic Habits</t>
+  </si>
+  <si>
+    <t>Attitude Is Everything: Change Your Attitude … Change Your Life!</t>
+  </si>
+  <si>
+    <t>Autobiography of a Yogi</t>
+  </si>
+  <si>
+    <t>Awareness: The Key to Living in Balance</t>
+  </si>
+  <si>
+    <t>BITCOIN BILLIONAIRES</t>
+  </si>
+  <si>
+    <t>Bad Therapy: Why the Kids Aren't Growing Up</t>
+  </si>
+  <si>
+    <t>Be You. Now!: Redefine Your Approach to Life</t>
+  </si>
+  <si>
+    <t>Becoming</t>
+  </si>
+  <si>
+    <t>Before the Coffee Gets Cold</t>
+  </si>
+  <si>
+    <t>Behave</t>
+  </si>
+  <si>
+    <t>Being Mortal: Medicine and What Matters in the End</t>
+  </si>
+  <si>
+    <t>Beyond Good And Evil</t>
+  </si>
+  <si>
+    <t>Beyond the Last Blue Mountain: A Life of J.R.D. Tata</t>
+  </si>
+  <si>
+    <t>Binge Times: Inside Hollywood’s Furious Billion-Dollar Battle to Take Down Netflix</t>
+  </si>
+  <si>
+    <t>Booming Digital Stars: 11 Inspiring Journeys from India’s Creator Economy</t>
+  </si>
+  <si>
+    <t>Brick by brick</t>
+  </si>
+  <si>
+    <t>Build (Lead Title): An Unorthodox Guide to Making Things Worth Making</t>
+  </si>
+  <si>
+    <t>COLD STEEL</t>
+  </si>
+  <si>
+    <t>Can’t Hurt Me: Master Your Mind and Defy the Odds</t>
+  </si>
+  <si>
+    <t>Century isn't enough</t>
+  </si>
+  <si>
+    <t>Charles Chaplin: My Autobiography</t>
+  </si>
+  <si>
+    <t>Clear Thinking</t>
+  </si>
+  <si>
+    <t>Courage: The Joy of Living Dangerously</t>
+  </si>
+  <si>
+    <t>Dare to Lead: Brave Work. Tough Conversations. Whole Hearts.</t>
+  </si>
+  <si>
+    <t>Deep Work: Rules for focused success in a distracted world</t>
+  </si>
+  <si>
+    <t>Delhi Darshan</t>
+  </si>
+  <si>
+    <t>Don’t Believe Everything You Think</t>
+  </si>
+  <si>
+    <t>EINSTEIN: GENIUS: His Life and Universe</t>
+  </si>
+  <si>
+    <t>Eat That Frog!: 21 Great Ways to Stop Procrastinating and Get More Done in Less Time</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Empire of Pain: The Secret History of the Sackler Dynasty</t>
+  </si>
+  <si>
+    <t>Everything Is Out of Syllabus: An Instru: An Instruction Manual for Life</t>
+  </si>
+  <si>
+    <t>Factfulness: Ten Reasons We’re Wrong About the World – and Why Things Are Better Than You Think</t>
+  </si>
+  <si>
+    <t>Fast This Way: Burn Fat, Heal Inflammation and Eat Like the High-Performing Human You Were Meant to Be</t>
+  </si>
+  <si>
+    <t>Four Thousand Weeks</t>
+  </si>
+  <si>
+    <t>Freedom from the known​</t>
+  </si>
+  <si>
+    <t>GIVE &amp; TAKE</t>
+  </si>
+  <si>
+    <t>Generations</t>
+  </si>
+  <si>
+    <t>God, Human, Animal, Machine: Technology, Metaphor, and the Search for Meaning</t>
+  </si>
+  <si>
+    <t>Good Vibes, Good Life: How Self-love Is the Key to Unlocking Your Greatness</t>
+  </si>
+  <si>
+    <t>Grit: The Power of Passion and Perseverance</t>
+  </si>
+  <si>
+    <t>HBR Daily Leader</t>
+  </si>
+  <si>
+    <t>HarperBusiness Azim Premji: The Man Beyond the Billions</t>
+  </si>
+  <si>
+    <t>Harsh Realities: The Making of Marico</t>
+  </si>
+  <si>
+    <t>Hermann Hesse : Siddhartha: An Indian Tale</t>
+  </si>
+  <si>
+    <t>Hope: Wisdom to Survive in a Hopeless World</t>
+  </si>
+  <si>
+    <t>How Not to Be Wrong: The Hidden Maths of Everyday Life</t>
+  </si>
+  <si>
+    <t>How Prime Ministers Decide</t>
+  </si>
+  <si>
+    <t>How Will You Measure your Life?</t>
+  </si>
+  <si>
+    <t>How to Find Fulfilling Work</t>
+  </si>
+  <si>
+    <t>How to Talk to Anyone: 92 Little Tricks for Big Success in Relationships</t>
+  </si>
+  <si>
+    <t>How to Win an Indian Election</t>
+  </si>
+  <si>
+    <t>How to do the work</t>
+  </si>
+  <si>
+    <t>Humsafar</t>
+  </si>
+  <si>
+    <t>Ikigai: The Japanese secret to a long and happy life</t>
+  </si>
+  <si>
+    <t>In Order To Live</t>
+  </si>
+  <si>
+    <t>In The Footsteps Of Rama: Travels with the Ramayana</t>
+  </si>
+  <si>
+    <t>India’s Most Fearless 2: More Military Stories of Unimaginable Courage and Sacrifice: More Military Stories of Unimaginable Courage and Sacrifice | Stories of War</t>
+  </si>
+  <si>
+    <t>Influence : The Psychology of Persuasion</t>
+  </si>
+  <si>
+    <t>Inner Game of Tennis</t>
+  </si>
+  <si>
+    <t>Intentional Integrity: How Smart Companies Can Lead an Ethical Revolution</t>
+  </si>
+  <si>
+    <t>Just Keep Buying: Proven ways to save money and build your wealth</t>
+  </si>
+  <si>
+    <t>LINCHPIN</t>
+  </si>
+  <si>
+    <t>Letting Go</t>
+  </si>
+  <si>
+    <t>Lifespan</t>
+  </si>
+  <si>
+    <t>Limitless</t>
+  </si>
+  <si>
+    <t>MINDSET</t>
+  </si>
+  <si>
+    <t>Malgudi Schooldays:The Adventures of Swami and His Friends</t>
+  </si>
+  <si>
+    <t>Man’s Search For Meaning: The classic tribute to hope from the Holocaust</t>
+  </si>
+  <si>
+    <t>Marching Powder: A True Story of a British Drug Smuggler In a Bolivian Jail</t>
+  </si>
+  <si>
+    <t>Maybe You Should Talk To Someone</t>
+  </si>
+  <si>
+    <t>Measure What Matters</t>
+  </si>
+  <si>
+    <t>Mind Without Fear</t>
+  </si>
+  <si>
+    <t>Mine your language</t>
+  </si>
+  <si>
+    <t>Misbehaving: The Making of Behavioural Economics</t>
+  </si>
+  <si>
+    <t>Multipliers: How the Best Leaders Make Everyone Smart</t>
+  </si>
+  <si>
+    <t>My life in full</t>
+  </si>
+  <si>
+    <t>New Words for Old</t>
+  </si>
+  <si>
+    <t>No Ego: How Leaders Can Cut the Cost of Workplace Drama, End Entitlement, and Drive Big Results</t>
+  </si>
+  <si>
+    <t>No Rules Rules: Netflix and the Culture of Reinvention</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Non Obvious Megatrends: How to See What Others Miss and Predict the Future</t>
+  </si>
+  <si>
+    <t>OUTSMART YOUR BRAIN</t>
+  </si>
+  <si>
+    <t>On Aggression</t>
+  </si>
+  <si>
+    <t>On the Shortness of Life</t>
+  </si>
+  <si>
+    <t>One Stop</t>
+  </si>
+  <si>
+    <t>Open: An Autobiography</t>
+  </si>
+  <si>
+    <t>Outliers: The Story of Success</t>
+  </si>
+  <si>
+    <t>Pandeymonium: Piyush Pandey on Advertising</t>
+  </si>
+  <si>
+    <t>Plato and a Platypus Walk into a Bar</t>
+  </si>
+  <si>
+    <t>Pre-Suasion: A Revolutionary Way to Influence and Persuade</t>
+  </si>
+  <si>
+    <t>Predictably Irrational: The Hidden Forces that Shape Our Decisions</t>
+  </si>
+  <si>
+    <t>Prisoners of Geography</t>
+  </si>
+  <si>
+    <t>Quiet: The power of introverts in a world that can’t stop talking</t>
+  </si>
+  <si>
+    <t>Radical Candor</t>
+  </si>
+  <si>
+    <t>Range: How Generalists Triumph in a Specialized World</t>
+  </si>
+  <si>
+    <t>Red Roulette</t>
+  </si>
+  <si>
+    <t>Rest: Why You Get More Done When You Work Less</t>
+  </si>
+  <si>
+    <t>Rumi's Little Book of Life</t>
+  </si>
+  <si>
+    <t>SPEECHES THAT MADE HISTORY</t>
+  </si>
+  <si>
+    <t>Same as Ever</t>
+  </si>
+  <si>
+    <t>Sapiens: A Brief History of Humankind</t>
+  </si>
+  <si>
+    <t>Seeking Wisdom: From Darwin to Munger</t>
+  </si>
+  <si>
+    <t>Seinfeldia: How a Show About Nothing Changed Everything</t>
+  </si>
+  <si>
+    <t>Several short sentences about writing​</t>
+  </si>
+  <si>
+    <t>Shoe Dog</t>
+  </si>
+  <si>
+    <t>Show Your Work!</t>
+  </si>
+  <si>
+    <t>Silence the mind</t>
+  </si>
+  <si>
+    <t>Sky High</t>
+  </si>
+  <si>
+    <t>Solve For Happy: Engineer Your Path to Joy</t>
+  </si>
+  <si>
+    <t>Steal like an artist</t>
+  </si>
+  <si>
+    <t>Stealing Fire</t>
+  </si>
+  <si>
+    <t>Stealing fire</t>
+  </si>
+  <si>
+    <t>Steve Jobs: The Exclusive Biography</t>
+  </si>
+  <si>
+    <t>Stillness is the Key: An Ancient Strategy for Modern Life</t>
+  </si>
+  <si>
+    <t>Stop walking on eggshells</t>
+  </si>
+  <si>
+    <t>Strike your balance: How to be at peace with yourself</t>
+  </si>
+  <si>
+    <t>THE COURAGE TO BE DISLIKED</t>
+  </si>
+  <si>
+    <t>The 5 AM Club</t>
+  </si>
+  <si>
+    <t>The Alchemist</t>
+  </si>
+  <si>
+    <t>The Art of Statistics</t>
+  </si>
+  <si>
+    <t>The Body</t>
+  </si>
+  <si>
+    <t>The Book Thief</t>
+  </si>
+  <si>
+    <t>The Book You Want Everyone You Love To Read</t>
+  </si>
+  <si>
+    <t>The Book You Wish Your Parents Had Read</t>
+  </si>
+  <si>
+    <t>The Carbon Almanac</t>
+  </si>
+  <si>
+    <t>The Code of the Extraordinary Mind</t>
+  </si>
+  <si>
+    <t>The Courage to be happy</t>
+  </si>
+  <si>
+    <t>The Education of a Value Investor: My Transformative Quest for Wealth, Wisdom, and Enlightenment</t>
+  </si>
+  <si>
+    <t>The First and Last Freedom</t>
+  </si>
+  <si>
+    <t>The Greatest Minds and Ideas of All Time</t>
+  </si>
+  <si>
+    <t>The Joys Of Compounding: The Passionate Pursuit of Lifelong Learning</t>
+  </si>
+  <si>
+    <t>The LEGO Story</t>
+  </si>
+  <si>
+    <t>The Last Lecture</t>
+  </si>
+  <si>
+    <t>The Laws of Human Nature</t>
+  </si>
+  <si>
+    <t>The Little Prince</t>
+  </si>
+  <si>
+    <t>The Master: The Brilliant Career of Roger Federer</t>
+  </si>
+  <si>
+    <t>The Money Trap</t>
+  </si>
+  <si>
+    <t>The Monk Who Sold His Ferrari</t>
+  </si>
+  <si>
+    <t>The Moral Animal</t>
+  </si>
+  <si>
+    <t>The Network State: How To Start a New Country</t>
+  </si>
+  <si>
+    <t>The Power of Moments: Why Certain Experiences Have Extraordinary Impact</t>
+  </si>
+  <si>
+    <t>The Power of Your Subconscious Mind</t>
+  </si>
+  <si>
+    <t>The Psychology of Money</t>
+  </si>
+  <si>
+    <t>The Selfish Gene</t>
+  </si>
+  <si>
+    <t>The Tata Story</t>
+  </si>
+  <si>
+    <t>The YouTube Formula: How Anyone Can Unlock the Algorithm to Drive Views, Build an Audience, and Grow Revenue</t>
+  </si>
+  <si>
+    <t>The Z Factor</t>
+  </si>
+  <si>
+    <t>The journey home</t>
+  </si>
+  <si>
+    <t>The learning game</t>
+  </si>
+  <si>
+    <t>Think Again: The Power of Knowing What You Don’t Know</t>
+  </si>
+  <si>
+    <t>Think Like a Monk: The secret of how to harness the power of positivity and be happy now</t>
+  </si>
+  <si>
+    <t>Think and Grow Rich</t>
+  </si>
+  <si>
+    <t>Think like a freak</t>
+  </si>
+  <si>
+    <t>Think like a rocket scientist</t>
+  </si>
+  <si>
+    <t>Tools of Titans: The Tactics, Routines and Habits of Billionaires, Icons and World-Class Performers</t>
+  </si>
+  <si>
+    <t>Twelve and a Half : Leveraging the Emotional Ingredients Necessary for Business Success</t>
+  </si>
+  <si>
+    <t>Uncanny Valley: A Memoir</t>
+  </si>
+  <si>
+    <t>University of Berkshire Hathaway: 30 Years of Lessons Learned from Warren Buffett &amp; Charlie Munger at the Annual Shareholders Meeting</t>
+  </si>
+  <si>
+    <t>Unreasoable hospitality</t>
+  </si>
+  <si>
+    <t>Uprising: The Liberation of Dadra and Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Waking Up: Searching for Spirituality Without Religion</t>
+  </si>
+  <si>
+    <t>What I learnt about investing from Darwin</t>
+  </si>
+  <si>
+    <t>What It Takes</t>
+  </si>
+  <si>
+    <t>What You Do Is Who You Are: How to Create Your Business Culture</t>
+  </si>
+  <si>
+    <t>Who Ordered This Truckload of Dung?</t>
+  </si>
+  <si>
+    <t>Who Will Cry When You Die?</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Wings of Fire: Autobiography of Abdul Kalam</t>
+  </si>
+  <si>
+    <t>SL No.</t>
+  </si>
+  <si>
+    <t>Book Name</t>
+  </si>
+  <si>
+    <t>https://ankurwarikoo.com/book-recommendations/</t>
+  </si>
+  <si>
+    <t>Malavikagnimitram (PB): The Dancer and the King</t>
+  </si>
+  <si>
+    <t>Kumarasambhavam (PB): The Origin of the Young God</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0143424076/?coliid=I1VCIXAVD12N7M&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Raghuvamsam</t>
+  </si>
+  <si>
+    <t>SHIVAJI : India’s Great Warrior King</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9353456185/?coliid=I2AGJBMB66HMOY&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Commentries on Ashtavakra Gita By Acharya Prashant Acharya Prashant</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9392657854/?coliid=I1AJ92OSXZOL90&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Illustrated Ramayana, The: The timeless</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9388372476/?coliid=I2Q6OBS40QVGHA&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>The Illustrated Mahabharata: The definitive guide to India’s greatest epic</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9388372344/?coliid=I2QRFVQ06ZG8U9&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Mahabharata in Odia (18 Parva, 3 Books set) (ORIGINAL EDITION) Sarala Das Odia Mahabharat in 3 Volumes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B099QW1RN6/?coliid=I3A3FOY8L1PTUW&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Bhagavad Gita (Vol 1 &amp; Vol 2) by Acharya Prashant [Paperback] Acharya Prashant</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8197647313/?coliid=I38MT2X7R4Z82N&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Viewfinder: A Memoir</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/936045544X/?coliid=I1UZ5JBAQUWYFO&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Total Price: ₹226907</t>
   </si>
 </sst>
 </file>
@@ -7886,7 +8485,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7900,6 +8499,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7909,7 +8523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -7917,20 +8531,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -13964,7 +14606,7 @@
       <c r="C407" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="D407" s="4">
+      <c r="D407" s="3">
         <v>183</v>
       </c>
     </row>
@@ -13987,7 +14629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+    <sheetView topLeftCell="A391" workbookViewId="0">
       <selection activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
@@ -19721,6 +20363,7415 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D7A945-0326-4259-803C-3D5C473FCCB8}">
+  <dimension ref="A1:D424"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B329" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="85.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="9">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="D2" s="9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D3" s="9">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D4" s="9">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="9">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D6" s="9">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D7" s="9">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D8" s="9">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D12" s="9">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D13" s="9">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>27</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>32</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>33</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>34</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>35</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>36</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>37</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2329</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>38</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>39</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>40</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>41</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>42</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>43</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>44</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>45</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>46</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>47</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>48</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>49</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>50</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>51</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>52</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>53</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>54</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>55</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>56</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>57</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>58</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>59</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>60</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>61</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>62</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>63</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>64</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>65</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>66</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>67</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>68</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>69</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>70</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>71</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>72</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>73</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>74</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>75</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>76</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>77</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>78</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>79</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>80</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>81</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>82</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>83</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>84</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>85</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>86</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>87</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>88</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>89</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>90</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>91</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>92</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>93</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>94</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>95</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>96</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>97</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>98</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>99</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>100</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>101</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>102</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>103</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>104</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>105</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>106</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>107</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>108</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>109</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>110</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>111</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>112</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>113</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>114</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>115</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>116</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>117</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>118</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>119</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>120</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>121</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>122</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>123</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>124</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>125</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>126</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>127</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>128</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>2404</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>129</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>130</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>131</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>132</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>133</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>134</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>135</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>2410</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>136</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>137</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>138</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>139</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>140</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>141</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>142</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>143</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>144</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>145</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>146</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>147</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>148</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>149</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="7">
+        <v>150</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="7">
+        <v>151</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="7">
+        <v>152</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
+        <v>153</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>154</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
+        <v>155</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="7">
+        <v>156</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="7">
+        <v>157</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="7">
+        <v>158</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
+        <v>159</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="7">
+        <v>160</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>161</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="7">
+        <v>162</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
+        <v>163</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>164</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>165</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>166</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>167</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>168</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
+        <v>169</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>170</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="7">
+        <v>171</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="7">
+        <v>172</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="7">
+        <v>173</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="7">
+        <v>174</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="7">
+        <v>175</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="7">
+        <v>176</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="7">
+        <v>177</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="7">
+        <v>178</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="7">
+        <v>179</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="7">
+        <v>180</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="7">
+        <v>181</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="7">
+        <v>182</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="7">
+        <v>183</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="7">
+        <v>184</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="7">
+        <v>185</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>186</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="7">
+        <v>187</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="7">
+        <v>188</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="7">
+        <v>189</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="7">
+        <v>190</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="7">
+        <v>191</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="7">
+        <v>192</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>193</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>194</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>195</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
+        <v>196</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>197</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="7">
+        <v>198</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
+        <v>199</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
+        <v>200</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
+        <v>201</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="7">
+        <v>202</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="7">
+        <v>203</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="7">
+        <v>204</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="7">
+        <v>205</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="7">
+        <v>206</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="7">
+        <v>207</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="7">
+        <v>208</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="7">
+        <v>209</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="7">
+        <v>210</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="7">
+        <v>211</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="7">
+        <v>212</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="7">
+        <v>213</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="7">
+        <v>214</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="7">
+        <v>215</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="7">
+        <v>216</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="7">
+        <v>217</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="7">
+        <v>218</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="7">
+        <v>219</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="7">
+        <v>220</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="7">
+        <v>221</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="7">
+        <v>222</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="7">
+        <v>223</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="7">
+        <v>224</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="7">
+        <v>225</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="7">
+        <v>226</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="7">
+        <v>227</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="7">
+        <v>228</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="7">
+        <v>229</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="7">
+        <v>230</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="7">
+        <v>231</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="7">
+        <v>232</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="7">
+        <v>233</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="7">
+        <v>234</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="7">
+        <v>235</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="7">
+        <v>236</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="7">
+        <v>237</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="7">
+        <v>238</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="7">
+        <v>239</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="7">
+        <v>240</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="7">
+        <v>241</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="7">
+        <v>242</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="7">
+        <v>243</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="7">
+        <v>244</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="7">
+        <v>245</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="7">
+        <v>246</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="7">
+        <v>247</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="7">
+        <v>248</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="7">
+        <v>249</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="7">
+        <v>250</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="7">
+        <v>251</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="7">
+        <v>252</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="7">
+        <v>253</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="7">
+        <v>254</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="7">
+        <v>255</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="7">
+        <v>256</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="7">
+        <v>257</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="7">
+        <v>258</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="7">
+        <v>259</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="7">
+        <v>260</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="7">
+        <v>261</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="7">
+        <v>262</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="7">
+        <v>263</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>2465</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="7">
+        <v>264</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="7">
+        <v>265</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="7">
+        <v>266</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="7">
+        <v>267</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="7">
+        <v>268</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="7">
+        <v>269</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="7">
+        <v>270</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="7">
+        <v>271</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="7">
+        <v>272</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="7">
+        <v>273</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="7">
+        <v>274</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="7">
+        <v>275</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="7">
+        <v>276</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="7">
+        <v>277</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="7">
+        <v>278</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="7">
+        <v>279</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="7">
+        <v>280</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="7">
+        <v>281</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="7">
+        <v>282</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="7">
+        <v>283</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="7">
+        <v>284</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="7">
+        <v>285</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D285" s="7" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="7">
+        <v>286</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="7">
+        <v>287</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D287" s="7" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="7">
+        <v>288</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="7">
+        <v>289</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="7">
+        <v>290</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="7">
+        <v>291</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D291" s="7" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="7">
+        <v>292</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="7">
+        <v>293</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="7">
+        <v>294</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="7">
+        <v>295</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="7">
+        <v>296</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="7">
+        <v>297</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="7">
+        <v>298</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="7">
+        <v>299</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="7">
+        <v>300</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>2483</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="7">
+        <v>301</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D301" s="7" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="7">
+        <v>302</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="7">
+        <v>303</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="7">
+        <v>304</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="7">
+        <v>305</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="7">
+        <v>306</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="7">
+        <v>307</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="7">
+        <v>308</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="7">
+        <v>309</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="7">
+        <v>310</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="7">
+        <v>311</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="7">
+        <v>312</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="7">
+        <v>313</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="7">
+        <v>314</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="7">
+        <v>315</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="7">
+        <v>316</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>2488</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="7">
+        <v>317</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="7">
+        <v>318</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D318" s="7" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="7">
+        <v>319</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="D319" s="7" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="7">
+        <v>320</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D320" s="7" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="7">
+        <v>321</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="7">
+        <v>322</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="D322" s="7" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="7">
+        <v>323</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D323" s="7" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="7">
+        <v>324</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="7">
+        <v>325</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D325" s="7" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="7">
+        <v>326</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D326" s="7" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="7">
+        <v>327</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="7">
+        <v>328</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D328" s="7" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="7">
+        <v>329</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D329" s="7" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="7">
+        <v>330</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D330" s="7" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="7">
+        <v>331</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D331" s="7" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="7">
+        <v>332</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D332" s="7" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="7">
+        <v>333</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D333" s="7" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="7">
+        <v>334</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D334" s="7" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="7">
+        <v>335</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D335" s="7" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="7">
+        <v>336</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D336" s="7" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="7">
+        <v>337</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="D337" s="7" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="7">
+        <v>338</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D338" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="7">
+        <v>339</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D339" s="7" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="7">
+        <v>340</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D340" s="7" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="7">
+        <v>341</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D341" s="7" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="7">
+        <v>342</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D342" s="7" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="7">
+        <v>343</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D343" s="7" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="7">
+        <v>344</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="D344" s="7" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="7">
+        <v>345</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="D345" s="7" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="7">
+        <v>346</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="D346" s="7" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="7">
+        <v>347</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D347" s="7" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="7">
+        <v>348</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D348" s="7" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="7">
+        <v>349</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D349" s="7" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="7">
+        <v>350</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D350" s="7" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="7">
+        <v>351</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D351" s="7" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="7">
+        <v>352</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C352" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D352" s="7" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="7">
+        <v>353</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D353" s="7" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="7">
+        <v>354</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C354" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D354" s="7" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="7">
+        <v>355</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D355" s="7" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="7">
+        <v>356</v>
+      </c>
+      <c r="B356" s="7" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="D356" s="7" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="7">
+        <v>357</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="D357" s="7" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="7">
+        <v>358</v>
+      </c>
+      <c r="B358" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="D358" s="7" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="7">
+        <v>359</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="7">
+        <v>360</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="D360" s="7" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="7">
+        <v>361</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="D361" s="7" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="7">
+        <v>362</v>
+      </c>
+      <c r="B362" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D362" s="7" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="7">
+        <v>363</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="D363" s="7" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="7">
+        <v>364</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="D364" s="7" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="7">
+        <v>365</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D365" s="7" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="7">
+        <v>366</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D366" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="7">
+        <v>367</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D367" s="7" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="7">
+        <v>368</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="D368" s="7" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="7">
+        <v>369</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="D369" s="7" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="7">
+        <v>370</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="D370" s="7" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="7">
+        <v>371</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="D371" s="7" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="7">
+        <v>372</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C372" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="D372" s="7" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="7">
+        <v>373</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="D373" s="7" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="7">
+        <v>374</v>
+      </c>
+      <c r="B374" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="D374" s="7" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="7">
+        <v>375</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D375" s="7" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="7">
+        <v>376</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D376" s="7" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="7">
+        <v>377</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="D377" s="7" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="7">
+        <v>378</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="D378" s="7" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="7">
+        <v>379</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="D379" s="7" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="7">
+        <v>380</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="D380" s="7" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="7">
+        <v>381</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D381" s="7" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="7">
+        <v>382</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="D382" s="7" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="7">
+        <v>383</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="D383" s="7" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="7">
+        <v>384</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D384" s="7" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="7">
+        <v>385</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D385" s="7" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="7">
+        <v>386</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D386" s="7" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="7">
+        <v>387</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="D387" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="7">
+        <v>388</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="D388" s="7" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="7">
+        <v>389</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D389" s="7" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="7">
+        <v>390</v>
+      </c>
+      <c r="B390" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="D390" s="7" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="7">
+        <v>391</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="C391" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="D391" s="7" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="7">
+        <v>392</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D392" s="7" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="7">
+        <v>393</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="D393" s="7" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="7">
+        <v>394</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="D394" s="7" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="7">
+        <v>395</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="D395" s="7" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="7">
+        <v>396</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="D396" s="7" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="7">
+        <v>397</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="D397" s="7" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="7">
+        <v>398</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="D398" s="7" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="7">
+        <v>399</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="C399" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="D399" s="7" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="7">
+        <v>400</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="D400" s="7" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="7">
+        <v>401</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D401" s="7" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="7">
+        <v>402</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="D402" s="7" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="7">
+        <v>403</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D403" s="7" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="7">
+        <v>404</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="D404" s="7" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="7">
+        <v>405</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D405" s="7" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="7">
+        <v>406</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D406" s="7" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="7">
+        <v>407</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="C407" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D407" s="7" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="7">
+        <v>408</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D408" s="7" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="7">
+        <v>409</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D409" s="7" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="7">
+        <v>410</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="D410" s="7" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="7">
+        <v>411</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="D411" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="7">
+        <v>412</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="D412" s="7" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="7">
+        <v>413</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D413" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="7">
+        <v>414</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="D414" s="7" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="7">
+        <v>415</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D415" s="7" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="7">
+        <v>416</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D416" s="7" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="7">
+        <v>417</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="D417" s="7" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="7">
+        <v>418</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D418" s="7" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="7">
+        <v>419</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="D419" s="7" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="7">
+        <v>420</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="D420" s="7" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="7">
+        <v>421</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="D421" s="7" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B424" s="2" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB219F3B-2DCF-4CCF-9077-3FCC135F4E24}">
+  <dimension ref="A1:C183"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="135.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{6AE7EF33-151C-456F-B93C-FAB4AA22EA65}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23990,12 +32041,12 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/resources/BookList.xlsx
+++ b/resources/BookList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\Github\Java-Maven-Practice\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDCFF60-B02B-4784-A1E3-AB69105FEA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DFDCB8-9D41-46B8-A66E-55EE26CE3B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F0696337-5D3C-427A-BA5D-5408D2E217DA}"/>
   </bookViews>
@@ -12278,8 +12278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="G415" sqref="G415"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/resources/BookList.xlsx
+++ b/resources/BookList.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\Github\Java-Maven-Practice\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DFDCB8-9D41-46B8-A66E-55EE26CE3B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF901AC-BAC7-456A-9E75-83C20AF04D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F0696337-5D3C-427A-BA5D-5408D2E217DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{F0696337-5D3C-427A-BA5D-5408D2E217DA}"/>
   </bookViews>
   <sheets>
     <sheet name="30-Jun-2025" sheetId="15" r:id="rId1"/>
     <sheet name="06-Jul-2025" sheetId="16" r:id="rId2"/>
-    <sheet name="Books to buy" sheetId="14" r:id="rId3"/>
+    <sheet name="26-Oct-2025" sheetId="17" r:id="rId3"/>
+    <sheet name="Books to buy" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4880" uniqueCount="2166">
   <si>
     <t>1</t>
   </si>
@@ -5952,6 +5953,588 @@
   </si>
   <si>
     <t>Total Price: ₹242046</t>
+  </si>
+  <si>
+    <t>सफलता के 24 अध्याय (24 Chapters of Success) by Sonu Sharma | Hindi Self Help &amp; Motivation Book on Success, Mindset, Habits, Wealth, Leadership, Health &amp; Personal Growth</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9371868554/?coliid=I25LUMOOOPZU0R&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 351</t>
+  </si>
+  <si>
+    <t>Dr. Cuterus: Everything Nobody Tells You About Your Body</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0143455702/?coliid=I19HBNXD1BEVPB&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Sitayana</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0143447297/?coliid=I1D521EE08958V&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Chakra healing</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9386450461/?coliid=I10YPG30CGWKZR&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 237</t>
+  </si>
+  <si>
+    <t>Ashtavakra Mahagita (Hindi)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9354407625/?coliid=I2WFAKD386T27H&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Bhagavad Gita (A Handbook For Students)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8172764952/?coliid=IAQ31OAG8V7DC&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 160</t>
+  </si>
+  <si>
+    <t>Indian Epics Retold</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0140255648/?coliid=I1FEYA7ISVYBHG&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>The Difficulty of Being Good: On the Subtle Art of Dharma</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0143418971/?coliid=I3K5IV0Z8O0HOU&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Principal Upanisads</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8172231245/?coliid=I1Q1VC99WY3PPM&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 669</t>
+  </si>
+  <si>
+    <t>Mahabharata, The : Penguin Classics : Ab</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0140446818/?coliid=I1FO0SNHFTMS1K&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Ramayana - C.R.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8172764820/?coliid=INOYJ824ZABX6&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Mahabharata</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8172764766/?coliid=I2TL7IPQUUH1G6&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>The Mahabharata a Modern Rendering: Vol I &amp; II</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8129114925/?coliid=I3D0988MXKR4CD&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>ESCAPE THE BAKASURA TRAP : Let Contentment Fuel Your Growth</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9353453747/?coliid=IRWRCSMF36Q1P&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Culture Code, The: The Secrets of Highly Successful Groups</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1847941273/?coliid=I3KK96JYEJFCWK&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>Srila Prabhupada Lilamrta: Biography of Srila Prabhupada (Founder Acarya of ISKCON)- 7 Vols. Set</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/8189574299/?coliid=I1GWV50JD61G0A&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1545</t>
+  </si>
+  <si>
+    <t>₹ 459</t>
+  </si>
+  <si>
+    <t>Exactly What to Say : The Magic Words for Influence and Impact</t>
+  </si>
+  <si>
+    <t>₹ 247</t>
+  </si>
+  <si>
+    <t>The Illustrated Ramayana: The Timeless Epic of Duty, Love, and Redemption | Valmiki’s Ramayana, Indian Mythology &amp; Collector’s Gift Edition</t>
+  </si>
+  <si>
+    <t>₹ 1469</t>
+  </si>
+  <si>
+    <t>The Illustrated Mahabharata: The Definitive Guide to India’s Greatest Epic | Complete Retelling with the Bhagavad Gita, Hindu Mythology &amp; Collector’s Gift Edition</t>
+  </si>
+  <si>
+    <t>₹ 1325</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B099QW1RN6/?coliid=I3A3FOY8L1PTUW&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 584</t>
+  </si>
+  <si>
+    <t>₹ 217</t>
+  </si>
+  <si>
+    <t>₹ 324</t>
+  </si>
+  <si>
+    <t>₹ 692</t>
+  </si>
+  <si>
+    <t>₹ 509</t>
+  </si>
+  <si>
+    <t>₹ 433</t>
+  </si>
+  <si>
+    <t>₹ 792</t>
+  </si>
+  <si>
+    <t>As Far As The Saffron Fields</t>
+  </si>
+  <si>
+    <t>₹ 189</t>
+  </si>
+  <si>
+    <t>The Fountainhead by Ayn Rand: Timeless Classic on Individualism, Integrity &amp; Ambition | Philosophical Fiction &amp; Bestselling Novel | Must-Read Literature</t>
+  </si>
+  <si>
+    <t>₹ 914</t>
+  </si>
+  <si>
+    <t>Ten Days That Shook the World</t>
+  </si>
+  <si>
+    <t>₹ 1647</t>
+  </si>
+  <si>
+    <t>₹ 1534</t>
+  </si>
+  <si>
+    <t>₹ 870</t>
+  </si>
+  <si>
+    <t>₹ 1294</t>
+  </si>
+  <si>
+    <t>₹ 1836</t>
+  </si>
+  <si>
+    <t>₹ 794</t>
+  </si>
+  <si>
+    <t>₹ 881</t>
+  </si>
+  <si>
+    <t>₹ 1727</t>
+  </si>
+  <si>
+    <t>₹ 168</t>
+  </si>
+  <si>
+    <t>₹ 629</t>
+  </si>
+  <si>
+    <t>₹ 494</t>
+  </si>
+  <si>
+    <t>₹ 174</t>
+  </si>
+  <si>
+    <t>₹ 386</t>
+  </si>
+  <si>
+    <t>₹ 387</t>
+  </si>
+  <si>
+    <t>You Can Heal Your Life: Self-Help Guide for Positive Thinking, Emotional Healing &amp; Mind-Body Wellness by Louise L. Hay</t>
+  </si>
+  <si>
+    <t>₹ 2988</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9353450640/?coliid=I1GPJHCLT10MPA&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1136</t>
+  </si>
+  <si>
+    <t>The Adventures Of The Kohinoor</t>
+  </si>
+  <si>
+    <t>₹ 197</t>
+  </si>
+  <si>
+    <t>₹ 1485</t>
+  </si>
+  <si>
+    <t>₹ 352</t>
+  </si>
+  <si>
+    <t>₹ 765</t>
+  </si>
+  <si>
+    <t>₹ 714</t>
+  </si>
+  <si>
+    <t>₹ 585</t>
+  </si>
+  <si>
+    <t>₹ 450</t>
+  </si>
+  <si>
+    <t>₹ 480</t>
+  </si>
+  <si>
+    <t>₹ 10582</t>
+  </si>
+  <si>
+    <t>₹ 360</t>
+  </si>
+  <si>
+    <t>₹ 12500</t>
+  </si>
+  <si>
+    <t>₹ 675</t>
+  </si>
+  <si>
+    <t>₹ 514</t>
+  </si>
+  <si>
+    <t>₹ 860</t>
+  </si>
+  <si>
+    <t>₹ 91</t>
+  </si>
+  <si>
+    <t>₹ 254</t>
+  </si>
+  <si>
+    <t>₹ 589</t>
+  </si>
+  <si>
+    <t>₹ 278</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0195656458/?coliid=I13U353JDA8QJS&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 615</t>
+  </si>
+  <si>
+    <t>₹ 411</t>
+  </si>
+  <si>
+    <t>₹ 650</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/038000321X/?coliid=I22174IERBA00N&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 263</t>
+  </si>
+  <si>
+    <t>₹ 255</t>
+  </si>
+  <si>
+    <t>₹ 569</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/1471101266/?coliid=I1478XJHYF3M21&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1265</t>
+  </si>
+  <si>
+    <t>₹ 106</t>
+  </si>
+  <si>
+    <t>₹ 396</t>
+  </si>
+  <si>
+    <t>₹ 172</t>
+  </si>
+  <si>
+    <t>₹ 558</t>
+  </si>
+  <si>
+    <t>₹ 457</t>
+  </si>
+  <si>
+    <t>₹ 548</t>
+  </si>
+  <si>
+    <t>The History of the Church from Christ to Constantine</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0140445358/?coliid=I2O27LQMN2BCS2&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1348</t>
+  </si>
+  <si>
+    <t>₹ 575</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0241197910/?coliid=I16GQ0TSI3A2ZM&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1317</t>
+  </si>
+  <si>
+    <t>₹ 789</t>
+  </si>
+  <si>
+    <t>₹ 409</t>
+  </si>
+  <si>
+    <t>₹ 1757</t>
+  </si>
+  <si>
+    <t>₹ 932</t>
+  </si>
+  <si>
+    <t>₹ 778</t>
+  </si>
+  <si>
+    <t>Canterbury Tales</t>
+  </si>
+  <si>
+    <t>₹ 364</t>
+  </si>
+  <si>
+    <t>₹ 357</t>
+  </si>
+  <si>
+    <t>₹ 362</t>
+  </si>
+  <si>
+    <t>Ramcharitmanas, The Vol.1</t>
+  </si>
+  <si>
+    <t>₹ 381</t>
+  </si>
+  <si>
+    <t>₹ 66</t>
+  </si>
+  <si>
+    <t>Hanuman Drama</t>
+  </si>
+  <si>
+    <t>₹ 226</t>
+  </si>
+  <si>
+    <t>₹ 238</t>
+  </si>
+  <si>
+    <t>₹ 340</t>
+  </si>
+  <si>
+    <t>₹ 316</t>
+  </si>
+  <si>
+    <t>₹ 164</t>
+  </si>
+  <si>
+    <t>Ashtanga Hridayam (Reprinted 2019)</t>
+  </si>
+  <si>
+    <t>₹ 670</t>
+  </si>
+  <si>
+    <t>₹ 1180</t>
+  </si>
+  <si>
+    <t>₹ 356</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9353576628/?coliid=I2X7QRT5JK3L1F&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 353</t>
+  </si>
+  <si>
+    <t>₹ 503</t>
+  </si>
+  <si>
+    <t>Forks in the Road: My Days at RBI and Beyond</t>
+  </si>
+  <si>
+    <t>₹ 603</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/097961743X/?coliid=I2CFAMMTDJDQTP&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1495</t>
+  </si>
+  <si>
+    <t>₹ 1100</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9390679346/?coliid=I3Q80PFO57R2EI&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 379</t>
+  </si>
+  <si>
+    <t>₹ 3254</t>
+  </si>
+  <si>
+    <t>₹ 4641</t>
+  </si>
+  <si>
+    <t>₹ 484</t>
+  </si>
+  <si>
+    <t>₹ 454</t>
+  </si>
+  <si>
+    <t>₹ 473</t>
+  </si>
+  <si>
+    <t>₹ 689</t>
+  </si>
+  <si>
+    <t>₹ 582</t>
+  </si>
+  <si>
+    <t>₹ 1199</t>
+  </si>
+  <si>
+    <t>₹ 2631</t>
+  </si>
+  <si>
+    <t>Laws Of Manu (Black Classics)</t>
+  </si>
+  <si>
+    <t>Chhandogyopnishad (Gita Press, Gorakhpur) (Sanuvad Shankar Bhashya Sahit) / Chhandogya Upnishad / Chandogya Upanishad / Chhandogyopanishad (Code ... ... Hindi) [Hardcover] [Hardcover] [Hardcover]</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9390064783/?coliid=I11MXR1YHV638D&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 1463</t>
+  </si>
+  <si>
+    <t>₹ 645</t>
+  </si>
+  <si>
+    <t>₹ 483</t>
+  </si>
+  <si>
+    <t>₹ 186</t>
+  </si>
+  <si>
+    <t>₹ 89</t>
+  </si>
+  <si>
+    <t>₹ 118</t>
+  </si>
+  <si>
+    <t>The Theory Of Everything | Where science meets wonder | Understand the universe | Journey into the cosmos | Black holes &amp; the Big Bang Explained</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/0195648587/?coliid=IAYXYQAOYGIV3&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B0BMGHTFFH/?coliid=I1CBTO5QNS8JEZ&amp;colid=H15GSZNFJH64&amp;psc=0&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>₹ 757</t>
+  </si>
+  <si>
+    <t>₹ 519</t>
+  </si>
+  <si>
+    <t>₹ 1686</t>
+  </si>
+  <si>
+    <t>₹ 912</t>
+  </si>
+  <si>
+    <t>₹ 793</t>
+  </si>
+  <si>
+    <t>₹ 2577</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/9392091249/?coliid=I1N6W3441GGIIH&amp;colid=H15GSZNFJH64&amp;psc=1&amp;ref_=list_c_wl_lv_ov_lig_dp_it</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>₹ 1417</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>₹ 856</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>Total Price: ₹238855</t>
+  </si>
+  <si>
+    <t>Minute Difference: 34 minute(s)</t>
   </si>
 </sst>
 </file>
@@ -12278,8 +12861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="C309" sqref="C309"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="B426" sqref="B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -18227,6 +18810,6155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D442"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="B436" sqref="B436"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B441" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B442" s="1" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB219F3B-2DCF-4CCF-9077-3FCC135F4E24}">
   <dimension ref="A1:C183"/>
   <sheetViews>
